--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Desktop\Formation developeur web\Projet 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Desktop\Formation developeur web\Projet 4\Starting+website\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6000D2-7FE9-4DCC-BA03-067152D98298}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59050889-8E3A-4BF5-8D5A-B3E926A96EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Catégorie</t>
   </si>
@@ -247,6 +243,24 @@
   </si>
   <si>
     <t>changer tout les image description de la page à text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css,code erreurs </t>
+  </si>
+  <si>
+    <t>ligne :822, 883 ,893,894.constant(safe-area-inset-left.right) n'est pas une valeur de padding</t>
+  </si>
+  <si>
+    <t>page2 formulaire manquer tage lable,input out line mal voir</t>
+  </si>
+  <si>
+    <t>Si un  formulaire n'a pas tag lable , la fonction ou le but de ce formulaire ne peut pas être présenté aux utilisateurs de lecteur d'écran. Les lables de formulaire fournissent également des descriptions visibles et des cibles cliquables plus large  pour les  formulaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter lable for chaque element, </t>
+  </si>
+  <si>
+    <t>ajouter les tag lable pour chaque elements, approfondir le color de outline de input, pour les faire plus ressortir.</t>
   </si>
 </sst>
 </file>
@@ -338,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -353,53 +367,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,588 +692,4774 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="12" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="b">
+      <c r="E2" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6" t="b">
+      <c r="E6" s="19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6" t="b">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6" t="b">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="1" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="11"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="11"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="25"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="25"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="25"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="25"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="25"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="25"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="25"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+    </row>
+    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="25"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="25"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="25"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="25"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="25"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="25"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="25"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="25"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="25"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="25"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+    </row>
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="25"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="25"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="25"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="25"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="25"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="25"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="25"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="25"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+    </row>
+    <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="25"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="25"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="25"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="25"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="25"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="25"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="25"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="25"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="25"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="25"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="25"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="25"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="25"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="25"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="25"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="25"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="25"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="25"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="25"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="25"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="25"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="25"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="25"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="25"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="25"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="25"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="25"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="25"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="25"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="25"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="25"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="25"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="25"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="25"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="25"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="25"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="25"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="25"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="25"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="25"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="25"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="25"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="25"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="25"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="25"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="25"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="25"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="25"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="25"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="25"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="25"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="25"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="25"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="25"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+    </row>
+    <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="25"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="25"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="25"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="25"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="25"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="25"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+    </row>
+    <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="25"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+    </row>
+    <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="25"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+    </row>
+    <row r="166" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="25"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+    </row>
+    <row r="167" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="25"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+    </row>
+    <row r="168" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="25"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+    </row>
+    <row r="169" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="25"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+    </row>
+    <row r="170" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="25"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="25"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+    </row>
+    <row r="172" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="25"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="25"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+    </row>
+    <row r="174" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="25"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+    </row>
+    <row r="175" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="25"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+    </row>
+    <row r="176" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="25"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+    </row>
+    <row r="177" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="25"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+    </row>
+    <row r="178" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="25"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="25"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+    </row>
+    <row r="180" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="25"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+    </row>
+    <row r="181" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="25"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+    </row>
+    <row r="182" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="25"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+    </row>
+    <row r="183" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="25"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="25"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+    </row>
+    <row r="185" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="25"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+    </row>
+    <row r="186" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="25"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+    </row>
+    <row r="187" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="25"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+    </row>
+    <row r="188" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="25"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+    </row>
+    <row r="189" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="25"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+    </row>
+    <row r="190" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="25"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+    </row>
+    <row r="191" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="25"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+    </row>
+    <row r="192" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="25"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+    </row>
+    <row r="193" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="25"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+    </row>
+    <row r="194" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="25"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="25"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+    </row>
+    <row r="196" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="25"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="25"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="25"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="25"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="25"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+    </row>
+    <row r="201" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="25"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+    </row>
+    <row r="202" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="25"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+    </row>
+    <row r="203" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="25"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+    </row>
+    <row r="204" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="25"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+    </row>
+    <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="25"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+    </row>
+    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="25"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+    </row>
+    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="25"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+    </row>
+    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="25"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+    </row>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Desktop\Formation developeur web\Projet 4\Starting+website\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59050889-8E3A-4BF5-8D5A-B3E926A96EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1B7C7-C10E-4D91-9C86-012954A198EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1500" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>Catégorie</t>
   </si>
@@ -47,18 +46,6 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>manquer description</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title ne pas correct</t>
-  </si>
-  <si>
     <t>erreur tag lang</t>
   </si>
   <si>
@@ -68,18 +55,12 @@
     <t>seo</t>
   </si>
   <si>
-    <t>erreur css padding</t>
-  </si>
-  <si>
     <t xml:space="preserve">lien des social </t>
   </si>
   <si>
     <t xml:space="preserve"> lien extérieur</t>
   </si>
   <si>
-    <t>trop et 404</t>
-  </si>
-  <si>
     <t>contenu</t>
   </si>
   <si>
@@ -98,69 +79,24 @@
     <t>il faut changer "Default" à "fr", parsque ce site pricipal langue c'est francaise ,defini tag lang="fr" peut amiliorer accesiblité de lecture d'écran</t>
   </si>
   <si>
-    <t>css ligne851, 857,erreur de (min/max-device-width) sont deconseillee par  MDN</t>
-  </si>
-  <si>
-    <t>erreur de media queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delet device </t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/CSS/@media/device-width</t>
   </si>
   <si>
-    <t>n'est pas une valeur de padding-left</t>
-  </si>
-  <si>
-    <t>https://webkit.org/blog/7929/designing-websites-for-iphone-x/</t>
-  </si>
-  <si>
     <t>https://webaim.org/standards/wcag/checklist#sc2.4.4</t>
   </si>
   <si>
     <t>enlever les liens vide, furnir un lien qui functionnel ou target le lien.</t>
   </si>
   <si>
-    <t>si un controle de formulaire n'a pas de lable de text correctement associée, la fonction ou le but de formulaire peut ne pas être présenté aux utilisateurs de l'ecteur d'écran. Les lables  de formulaire fornissent également des descriptions visibles et des cibles plus grandes pour les contrôles de formulaire.</t>
-  </si>
-  <si>
     <t>https://webaim.org/standards/wcag/checklist#sc3.3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">erreur page2 missing form label </t>
-  </si>
-  <si>
-    <t>add balise &lt;lable&gt;for formulaire</t>
-  </si>
-  <si>
-    <t>Entreprise web design Lyon</t>
-  </si>
-  <si>
     <t>Entreprise web design Lyon | La chouette agence</t>
   </si>
   <si>
-    <t>keywords black hat</t>
-  </si>
-  <si>
-    <t>évitez de mettre trop de mots clés similaires simplement pour atteindre les 50 mots ! Evitez de mettre des variantes de pronoms, une expression comprenant les mêmes mots dans un ordre différent, e</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/6736811-entrainez-vous-en-cherchant-les-mots-cles-les-plus-pertinents-pour-votre-site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2div keywords cacher dans nav , </t>
-  </si>
-  <si>
-    <t>https://unamo.com/blog/seo/8-risky-black-hat-seo-techniques-used-today</t>
-  </si>
-  <si>
     <t xml:space="preserve">code html </t>
   </si>
   <si>
-    <t>balise semantique</t>
-  </si>
-  <si>
     <t>dans footer  les lien des classe social ne pas correct， un lien sans text , ne presentera pas pour lecture d'ecran.</t>
   </si>
   <si>
@@ -170,21 +106,9 @@
     <t>surprimer les lien</t>
   </si>
   <si>
-    <t>liens  vid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top des liens vid </t>
-  </si>
-  <si>
-    <t>重新定义新的，高质量的外部链接</t>
-  </si>
-  <si>
     <t>javascript bloc la page</t>
   </si>
   <si>
-    <t xml:space="preserve">, ils bloqueront l’affichage de la page jusqu’à ce qu’ils soient complètement chargés. </t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
   </si>
   <si>
@@ -200,9 +124,6 @@
     <t>compresser les ressource</t>
   </si>
   <si>
-    <t>add".htaccess"file copmpress les html, css, javascript</t>
-  </si>
-  <si>
     <t>paramétrer le cache navigateur</t>
   </si>
   <si>
@@ -215,21 +136,9 @@
     <t xml:space="preserve">lien ne pas correct, </t>
   </si>
   <si>
-    <t>surprimer les lien " index.html, "</t>
-  </si>
-  <si>
-    <t>surprimer les lien ,creer  des lien correct lien , ajouter les lable aria</t>
-  </si>
-  <si>
     <t>reoganiser navbar</t>
   </si>
   <si>
-    <t>surprimer "Accuillie"changer page2 à contact  dans le navbar, ajouter aria-lable</t>
-  </si>
-  <si>
-    <t>surprimer les "Annuaires lister"</t>
-  </si>
-  <si>
     <t>color de text et background</t>
   </si>
   <si>
@@ -239,18 +148,9 @@
     <t>changer des color du text</t>
   </si>
   <si>
-    <t>changer du text "Contact"blanc en noir.</t>
-  </si>
-  <si>
-    <t>changer tout les image description de la page à text</t>
-  </si>
-  <si>
     <t xml:space="preserve">css,code erreurs </t>
   </si>
   <si>
-    <t>ligne :822, 883 ,893,894.constant(safe-area-inset-left.right) n'est pas une valeur de padding</t>
-  </si>
-  <si>
     <t>page2 formulaire manquer tage lable,input out line mal voir</t>
   </si>
   <si>
@@ -261,6 +161,189 @@
   </si>
   <si>
     <t>ajouter les tag lable pour chaque elements, approfondir le color de outline de input, pour les faire plus ressortir.</t>
+  </si>
+  <si>
+    <t>ajouter le description da la page</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/blog/2009/09/google-does-not-use-keywords-meta-tag?hl=en</t>
+  </si>
+  <si>
+    <t>Depuis2009,Goofle ne utilser plus "keywords"meta tag pour web search ranking</t>
+  </si>
+  <si>
+    <t>Surpimer meta keywords</t>
+  </si>
+  <si>
+    <t>Google utiliser plus meta keywords</t>
+  </si>
+  <si>
+    <t>description manquer</t>
+  </si>
+  <si>
+    <t>Les titres de page sont essentiels pour donner aux internautes une idée rapide du contenu et de la pertinence d'un résultat de recherche. Il s'agit bien souvent de l'information principale sur laquelle se base l'internaute pour décider de cliquer ou non sur un résultat. Il est donc important que les titres de vos pages Web soient de bonne qualité.</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/appearance/good-titles-snippets</t>
+  </si>
+  <si>
+    <t>Ajouter description de la page entre 70 et 320 caractères qui donnent envie aux internantes de cliquer"La chouette agence est une entreprise web design à lyon pour aider les acteurs de la région Lyonnaise à se développer et à connaître le succès! 
+	Devis gratuit pour le meilleur web design, stratéfie illustrations de votre site et votre boutique en ligne, bénéficiez de solutions optimales pour concrétiser un résultat et doubler vos ventes."</t>
+  </si>
+  <si>
+    <t>Titre manquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la balise « titre » est une méta donnée qui décrit en premier lieu le contenu d’une page web, Le titre en SEO sera transporté sur les résultats des moteurs , procure une information précieuse aux internautes pour les inciter à cliquer sur votre page web.</t>
+  </si>
+  <si>
+    <t>https://www.digitalcorsaire.com/pourquoi-la-balise-title/</t>
+  </si>
+  <si>
+    <t>Ajouter une titlre avce mots cles ne dépasse pas 65 caractéres"Entreprise web design Lyon-La chouette agence"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ils bloqueront l’affichage de la page jusqu’à ce qu’ils soient complètement chargés. </t>
+  </si>
+  <si>
+    <t>il faut surpimer le texts qui caché dans la page."&lt;div class="keywords" style="color: rgb(204, 204, 204); font-size: 1px;"&gt;
+Agence web à paris, stratégie web, web design, illustrations, design de site web, site web, web, internet, site internet, site
+&lt;/div&gt;"</t>
+  </si>
+  <si>
+    <t>https://www.lafabriquedunet.fr/seo/articles/referencement-seo-pratiques-dangereuses-a-eviter/</t>
+  </si>
+  <si>
+    <t>la vitesse de chargement des pages du site</t>
+  </si>
+  <si>
+    <t>les image dans la page sont trop grand, et les source de la page qui prendre beaucoup de palce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> copmpress les html, css, javascript, changer les images BMP et PNG à JPG compress les.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne 851, 857 "max/min-device-width"sont dé conseillée par w3c.</t>
+  </si>
+  <si>
+    <t>surprimer les</t>
+  </si>
+  <si>
+    <t>surprimer device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligne :876, 877 ,887,888.constant(safe-area-inset-left.right) n'est pas une valeur de padding,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">file "et-line.css"ligne 110 "speak: none"n'est pas une valeur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">surprimer la </t>
+  </si>
+  <si>
+    <t>eurreurs des balises link et script</t>
+  </si>
+  <si>
+    <t>en page2 :link  bootrap.min, et-line.min, script:jquery-2.1.0.min,  bootsrap.min, blics.min, sont pas correct, donc ca provequé la page s'adapté pas la page desktop</t>
+  </si>
+  <si>
+    <t>surprimer les"min"</t>
+  </si>
+  <si>
+    <t>balise semantique manqué sont de problem pour le lecteur d'écran aussi important pour  les moteurs facil de rechercher</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Apprendre/a11y/HTML</t>
+  </si>
+  <si>
+    <t>ajouter balise semantique</t>
+  </si>
+  <si>
+    <t>ajouter balise header section footer..</t>
+  </si>
+  <si>
+    <t>surprimer les lien"index.html" ,creer  des lien correct lien , ajouter les lable aria</t>
+  </si>
+  <si>
+    <t>reoganiser les lien social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images  alt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image alt description formaton ne pas correct </t>
+  </si>
+  <si>
+    <t>changer le region</t>
+  </si>
+  <si>
+    <t>cette page situé à Lyon n'est pas à paris , change la région paris à lyon</t>
+  </si>
+  <si>
+    <t>structuration html</t>
+  </si>
+  <si>
+    <t>reorganilser les heading</t>
+  </si>
+  <si>
+    <t>il est manquer h2,les utilisateurs peuvent être confus ou avoir des difficultés à naviguer lorsque les heading mal organisé. les heading fournissent une structure de document et facilitent la navigation au clavier par les utilisateaur de technologies d'assistance,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text à images il ne peut pa donner des information correct à des utilisateus, ausssi plus des images plus ralent le vitess de la page </t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/WCAG21/Understanding/section-headings.html</t>
+  </si>
+  <si>
+    <t>changer les images à text</t>
+  </si>
+  <si>
+    <t>recrit les text pour replacer les images.</t>
+  </si>
+  <si>
+    <t>ajouter h2 en replacant le image titre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> textes cachés dans la page , content duplicate,  au risque que Google considère la manœuvre comme une tentative malhonnête pour essayer d’influencer votre classement dans les moteurs de recherche. Ausssi c'est des problem pour accesiblité</t>
+  </si>
+  <si>
+    <t>texts cachés dans la page</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surprimer les lien ,trouver des lien en bonne qualité </t>
+  </si>
+  <si>
+    <t>la qualité du lien ne pas bonne, pages en 404</t>
+  </si>
+  <si>
+    <t>changer page2 à contact  dans le navbar, ajouter aria-lable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changer background du text </t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG21/#contrast-minimum</t>
+  </si>
+  <si>
+    <t>manquer aria-lable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouteraria-lable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter aria lable pour tout le botton </t>
+  </si>
+  <si>
+    <t>Les ARIA lable définissent les noms accessibles à lire par les lecteurs d'écran pour les éléments d'interface. Ils peuvent être utilisés lorsque les associations HTML</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940999-utilisez-des-outils-de-test-automatises</t>
   </si>
 </sst>
 </file>
@@ -347,12 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,12 +465,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,9 +531,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -431,9 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -465,14 +579,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,21 +853,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="25" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="11" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -718,13 +881,13 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
@@ -749,20 +912,20 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="b">
+      <c r="E2" s="12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -778,22 +941,24 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>14</v>
+    <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
+      <c r="C4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -810,19 +975,25 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>14</v>
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -838,23 +1009,25 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>14</v>
+    <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -870,22 +1043,24 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>14</v>
+    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
-        <v>43</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -902,25 +1077,23 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>14</v>
+    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>54</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="20"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -936,18 +1109,24 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>54</v>
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -964,13 +1143,25 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15"/>
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -986,18 +1177,18 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>62</v>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1014,22 +1205,26 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1044,18 +1239,20 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="4"/>
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1070,14 +1267,20 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="4"/>
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1092,13 +1295,23 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1114,63 +1327,47 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+    </row>
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1186,24 +1383,24 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>23</v>
+    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1220,23 +1417,21 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22" t="s">
-        <v>28</v>
-      </c>
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1252,20 +1447,24 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>17</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>30</v>
+        <v>85</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1282,23 +1481,25 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>23</v>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1314,25 +1515,25 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1342,21 +1543,23 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1372,13 +1575,25 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="15"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1394,24 +1609,24 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>23</v>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1428,21 +1643,25 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1458,23 +1677,23 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>23</v>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1490,21 +1709,25 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1520,15 +1743,13 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1544,13 +1765,13 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1566,13 +1787,13 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1588,13 +1809,13 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+    <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1610,13 +1831,13 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1633,12 +1854,12 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1655,12 +1876,12 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1677,12 +1898,12 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1699,12 +1920,12 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1721,12 +1942,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1743,12 +1964,12 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -1765,12 +1986,12 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -1787,12 +2008,12 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -1809,12 +2030,12 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1831,12 +2052,12 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -1853,12 +2074,12 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -1875,12 +2096,12 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -1897,12 +2118,12 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -1919,12 +2140,12 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -1941,12 +2162,12 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -1963,12 +2184,12 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -1985,12 +2206,12 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2006,13 +2227,13 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2028,13 +2249,13 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -2050,13 +2271,13 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -2073,12 +2294,12 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -2095,12 +2316,12 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -2117,12 +2338,12 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -2139,12 +2360,12 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -2161,12 +2382,12 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2183,12 +2404,12 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -2205,12 +2426,12 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -2227,12 +2448,12 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -2249,12 +2470,12 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -2271,12 +2492,12 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -2293,12 +2514,12 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -2315,12 +2536,12 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -2337,12 +2558,12 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="15"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2359,12 +2580,12 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -2381,12 +2602,12 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="15"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -2403,12 +2624,12 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="15"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -2425,12 +2646,12 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -2447,12 +2668,12 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="15"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -2469,12 +2690,12 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="15"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -2491,12 +2712,12 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -2513,12 +2734,12 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -2535,12 +2756,12 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="15"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -2557,12 +2778,12 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -2579,12 +2800,12 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -2601,12 +2822,12 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="15"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -2623,12 +2844,12 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="15"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -2645,12 +2866,12 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -2667,12 +2888,12 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="15"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -2689,12 +2910,12 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="15"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -2711,12 +2932,12 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="15"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -2733,12 +2954,12 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -2755,12 +2976,12 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -2777,12 +2998,12 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="15"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -2799,12 +3020,12 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -2821,12 +3042,12 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="15"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -2843,12 +3064,12 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="15"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -2865,12 +3086,12 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="15"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -2887,12 +3108,12 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="15"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -2909,12 +3130,12 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="15"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -2931,12 +3152,12 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="15"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -2953,12 +3174,12 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="15"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -2975,12 +3196,12 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="15"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -2997,12 +3218,12 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="15"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -3019,12 +3240,12 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -3041,12 +3262,12 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="15"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -3063,12 +3284,12 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="15"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -3085,12 +3306,12 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="15"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="14"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -3107,12 +3328,12 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="15"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -3129,12 +3350,12 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="15"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -3151,12 +3372,12 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="15"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -3173,12 +3394,12 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="15"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -3195,12 +3416,12 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="15"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -3217,12 +3438,12 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="15"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -3239,12 +3460,12 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="15"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -3261,12 +3482,12 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="15"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -3283,12 +3504,12 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="15"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -3305,12 +3526,12 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="15"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="14"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -3327,12 +3548,12 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="15"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="14"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -3349,12 +3570,12 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="25"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="15"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -3371,12 +3592,12 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="15"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -3393,12 +3614,12 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="25"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="15"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="14"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -3415,12 +3636,12 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="25"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="15"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -3437,12 +3658,12 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="25"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="15"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -3459,12 +3680,12 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="25"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="15"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -3481,12 +3702,12 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="15"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -3503,12 +3724,12 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="15"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -3525,12 +3746,12 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="15"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -3547,12 +3768,12 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="15"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -3569,12 +3790,12 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="25"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="15"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="14"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -3591,12 +3812,12 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="25"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="15"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -3613,12 +3834,12 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="25"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="15"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -3635,12 +3856,12 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="25"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -3657,12 +3878,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="15"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -3679,12 +3900,12 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="25"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="15"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -3701,12 +3922,12 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="25"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="15"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -3723,12 +3944,12 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="15"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -3745,12 +3966,12 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="25"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="15"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -3767,12 +3988,12 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="15"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
@@ -3789,12 +4010,12 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="25"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="15"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -3811,12 +4032,12 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="25"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="15"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -3833,12 +4054,12 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="25"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="15"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -3855,12 +4076,12 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="15"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -3877,12 +4098,12 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="25"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -3899,12 +4120,12 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="25"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="15"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -3921,12 +4142,12 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="25"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="15"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -3943,12 +4164,12 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="15"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -3965,12 +4186,12 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="25"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="15"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -3987,12 +4208,12 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="25"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="15"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -4009,12 +4230,12 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="25"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="15"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="14"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -4031,12 +4252,12 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="25"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="15"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -4053,12 +4274,12 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="25"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="15"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="14"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -4075,12 +4296,12 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="15"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -4097,12 +4318,12 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="25"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="15"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -4119,12 +4340,12 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="15"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -4141,12 +4362,12 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="15"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="14"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -4163,12 +4384,12 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="25"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="15"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -4185,12 +4406,12 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="25"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="15"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="14"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -4207,12 +4428,12 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="25"/>
+      <c r="A152" s="23"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="15"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="14"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -4229,12 +4450,12 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="25"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="15"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="14"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -4251,12 +4472,12 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="15"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -4273,12 +4494,12 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="25"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="15"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="14"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -4295,12 +4516,12 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="25"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="15"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="14"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -4317,12 +4538,12 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="25"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="15"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="14"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -4339,12 +4560,12 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="25"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="15"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -4361,12 +4582,12 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="25"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="15"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="14"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -4383,12 +4604,12 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="15"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="14"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -4405,12 +4626,12 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="15"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="14"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -4427,12 +4648,12 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="25"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="15"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="14"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -4449,12 +4670,12 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="15"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="14"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -4471,12 +4692,12 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="25"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="15"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="14"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -4493,12 +4714,12 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="25"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="15"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="14"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -4515,12 +4736,12 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="25"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="15"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="14"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -4537,12 +4758,12 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="25"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="15"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="14"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -4559,12 +4780,12 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="15"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="14"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -4581,12 +4802,12 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="25"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="15"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="14"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -4603,12 +4824,12 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="15"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="14"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -4625,12 +4846,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="25"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="15"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="14"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -4647,12 +4868,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="25"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="15"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="14"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -4669,12 +4890,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="15"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -4691,12 +4912,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="25"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="15"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="14"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -4713,12 +4934,12 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="25"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="15"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="14"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -4735,12 +4956,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="25"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="15"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="14"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -4757,12 +4978,12 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="25"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="15"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="14"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -4779,12 +5000,12 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="25"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="15"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="14"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -4801,12 +5022,12 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="25"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="15"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="14"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -4823,12 +5044,12 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="25"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="15"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="14"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -4845,12 +5066,12 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="25"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="15"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="14"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -4867,12 +5088,12 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="25"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="15"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="14"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -4889,12 +5110,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="25"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="15"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="14"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -4911,12 +5132,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="25"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="15"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="14"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -4933,12 +5154,12 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="25"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="15"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="14"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
@@ -4955,12 +5176,12 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="25"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="15"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="14"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -4977,12 +5198,12 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="25"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="15"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="14"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -4999,12 +5220,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="25"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="15"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="14"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -5021,12 +5242,12 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="25"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="15"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="14"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -5043,12 +5264,12 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="25"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="15"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="14"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -5065,12 +5286,12 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="25"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="15"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -5087,12 +5308,12 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="25"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="7"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="15"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="14"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -5109,12 +5330,12 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="25"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="15"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="14"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -5131,12 +5352,12 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="25"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="15"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="14"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -5153,12 +5374,12 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="25"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="7"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="15"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="14"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -5175,12 +5396,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="25"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="7"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="15"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="14"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
@@ -5197,12 +5418,12 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="25"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="7"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="15"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="14"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -5219,12 +5440,12 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="25"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="7"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="15"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="14"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -5241,12 +5462,12 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="25"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="7"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="15"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="14"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -5263,12 +5484,12 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="25"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="15"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="14"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
@@ -5285,12 +5506,12 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="25"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="7"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="15"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="14"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -5307,12 +5528,12 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="25"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="7"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="15"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="14"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
@@ -5329,12 +5550,12 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="25"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="7"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="15"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="14"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -5351,12 +5572,12 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="25"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="7"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="15"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="14"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -5373,12 +5594,12 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="25"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="7"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="15"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="14"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -5394,72 +5615,9 @@
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
     </row>
-    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="25"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-    </row>
-    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="25"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-    </row>
-    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="25"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-    </row>
+    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6262,17 +6420,28 @@
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="erreur@media width" xr:uid="{E4A5ADD7-0EF0-4C6C-BC73-242379655E88}"/>
-    <hyperlink ref="F19" r:id="rId2" xr:uid="{B31A274E-F07C-44B6-9196-D872B832FF89}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{B2CF623E-A30D-4216-89F4-04279882C60A}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{F88C2772-E3D2-4978-8756-B096FCF63618}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{B31A274E-F07C-44B6-9196-D872B832FF89}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{F88C2772-E3D2-4978-8756-B096FCF63618}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{8A750D1A-8E1F-4B72-8BA2-E6F9CF7926F8}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{E4C6613E-D951-48EB-8826-128A83D99A92}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{42D7682B-CCBD-4759-8914-EFA32EF05545}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{C941E12C-1424-44F5-8F24-6A3993B772ED}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{75F39C92-1A36-44BA-BF0F-0BB87A9543EA}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{7139B08F-5529-47F1-94E0-3C155EF83976}"/>
+    <hyperlink ref="F22" r:id="rId9" xr:uid="{555D7DD7-FFEB-4C02-88A0-3BA164A098F8}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{7ADD23F4-EEF3-4BEF-8018-8CAD6760A4ED}"/>
+    <hyperlink ref="F25" r:id="rId11" location="sc3.3.2" xr:uid="{2C827E1F-1051-44EC-950F-80370F60BA6F}"/>
+    <hyperlink ref="F27" r:id="rId12" location="contrast-minimum" xr:uid="{97149AD8-AC7D-4626-884D-7B0A9439CB46}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>